--- a/mallar/Protokoll 2019/Protokoll 2019 individuell junior.xlsx
+++ b/mallar/Protokoll 2019/Protokoll 2019 individuell junior.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magnus.sandberg\Documents\Visual Studio 2015\Projects\VoltigeClosedXML\mallar\Protokoll 2019\ej klara\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magnus.sandberg\Documents\Visual Studio 2015\Projects\VoltigeClosedXML\mallar\Protokoll 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{139E0CFA-8DC0-4C5F-8BB2-4EB096B385B1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E3197F-B02B-42F3-9D33-1AE5C003ED44}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" tabRatio="966" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="285" yWindow="2753" windowWidth="16200" windowHeight="9397" tabRatio="966" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="37" r:id="rId1"/>
@@ -702,8 +702,8 @@
     <numFmt numFmtId="167" formatCode="0.000"/>
     <numFmt numFmtId="168" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="169" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="0_ ;\-0\ "/>
-    <numFmt numFmtId="173" formatCode="0.0"/>
+    <numFmt numFmtId="170" formatCode="0_ ;\-0\ "/>
+    <numFmt numFmtId="171" formatCode="0.0"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -1825,7 +1825,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1865,7 +1865,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="15" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2010,10 +2010,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="2" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="2" fillId="2" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="2" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="2" fillId="2" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2028,19 +2028,19 @@
     <xf numFmtId="167" fontId="1" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="2" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="2" fillId="2" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="2" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="2" fillId="2" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="2" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="2" fillId="2" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="2" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="2" fillId="2" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="2" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="2" fillId="2" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="1" fillId="2" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2051,171 +2051,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7"/>
-    <xf numFmtId="173" fontId="2" fillId="2" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="2" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="2" fillId="2" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="2" fillId="2" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="2" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="2" fillId="2" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="48" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="50" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2224,6 +2059,171 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="48" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="50" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="2" fillId="2" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="2" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="2" fillId="2" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="2" fillId="2" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="2" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="2" fillId="2" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Dezimal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
@@ -2579,7 +2579,7 @@
   <sheetPr codeName="Blad1"/>
   <dimension ref="A1:Q88"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="D11" workbookViewId="0">
+    <sheetView showZeros="0" topLeftCell="D11" workbookViewId="0">
       <selection activeCell="D65" sqref="A65:XFD65"/>
     </sheetView>
   </sheetViews>
@@ -2701,27 +2701,27 @@
       <c r="G19" s="141"/>
       <c r="H19" s="141"/>
     </row>
-    <row r="20" spans="1:9" s="249" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="246" t="s">
+    <row r="20" spans="1:9" s="194" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="191" t="s">
         <v>88</v>
       </c>
-      <c r="B20" s="247" t="s">
+      <c r="B20" s="192" t="s">
         <v>95</v>
       </c>
-      <c r="C20" s="247" t="s">
+      <c r="C20" s="192" t="s">
         <v>147</v>
       </c>
-      <c r="D20" s="247" t="s">
+      <c r="D20" s="192" t="s">
         <v>147</v>
       </c>
-      <c r="E20" s="248"/>
-      <c r="F20" s="247" t="s">
+      <c r="E20" s="193"/>
+      <c r="F20" s="192" t="s">
         <v>95</v>
       </c>
-      <c r="G20" s="247" t="s">
+      <c r="G20" s="192" t="s">
         <v>151</v>
       </c>
-      <c r="H20" s="247" t="s">
+      <c r="H20" s="192" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2934,32 +2934,32 @@
       <c r="H34" s="141"/>
       <c r="I34" s="141"/>
     </row>
-    <row r="35" spans="1:14" s="249" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="246" t="s">
+    <row r="35" spans="1:14" s="194" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="191" t="s">
         <v>88</v>
       </c>
-      <c r="B35" s="247" t="s">
+      <c r="B35" s="192" t="s">
         <v>95</v>
       </c>
-      <c r="C35" s="247" t="s">
+      <c r="C35" s="192" t="s">
         <v>147</v>
       </c>
-      <c r="D35" s="247" t="s">
+      <c r="D35" s="192" t="s">
         <v>147</v>
       </c>
-      <c r="E35" s="247" t="s">
+      <c r="E35" s="192" t="s">
         <v>147</v>
       </c>
-      <c r="F35" s="247" t="s">
+      <c r="F35" s="192" t="s">
         <v>95</v>
       </c>
-      <c r="G35" s="247" t="s">
+      <c r="G35" s="192" t="s">
         <v>151</v>
       </c>
-      <c r="H35" s="247" t="s">
+      <c r="H35" s="192" t="s">
         <v>96</v>
       </c>
-      <c r="I35" s="247" t="s">
+      <c r="I35" s="192" t="s">
         <v>151</v>
       </c>
     </row>
@@ -3245,46 +3245,46 @@
       <c r="O51" s="141"/>
       <c r="P51" s="141"/>
     </row>
-    <row r="52" spans="1:17" s="249" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="246" t="s">
+    <row r="52" spans="1:17" s="194" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="191" t="s">
         <v>88</v>
       </c>
-      <c r="B52" s="247" t="s">
+      <c r="B52" s="192" t="s">
         <v>95</v>
       </c>
-      <c r="C52" s="247" t="s">
+      <c r="C52" s="192" t="s">
         <v>147</v>
       </c>
-      <c r="D52" s="247" t="s">
+      <c r="D52" s="192" t="s">
         <v>147</v>
       </c>
-      <c r="E52" s="248"/>
-      <c r="F52" s="247" t="s">
+      <c r="E52" s="193"/>
+      <c r="F52" s="192" t="s">
         <v>95</v>
       </c>
-      <c r="G52" s="247" t="s">
+      <c r="G52" s="192" t="s">
         <v>151</v>
       </c>
-      <c r="H52" s="247" t="s">
+      <c r="H52" s="192" t="s">
         <v>96</v>
       </c>
-      <c r="J52" s="247" t="s">
+      <c r="J52" s="192" t="s">
         <v>95</v>
       </c>
-      <c r="K52" s="247" t="s">
+      <c r="K52" s="192" t="s">
         <v>147</v>
       </c>
-      <c r="L52" s="247" t="s">
+      <c r="L52" s="192" t="s">
         <v>147</v>
       </c>
-      <c r="M52" s="248"/>
-      <c r="N52" s="247" t="s">
+      <c r="M52" s="193"/>
+      <c r="N52" s="192" t="s">
         <v>95</v>
       </c>
-      <c r="O52" s="247" t="s">
+      <c r="O52" s="192" t="s">
         <v>151</v>
       </c>
-      <c r="P52" s="247" t="s">
+      <c r="P52" s="192" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3558,56 +3558,56 @@
       <c r="P64" s="141"/>
       <c r="Q64" s="141"/>
     </row>
-    <row r="65" spans="1:17" s="249" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="246" t="s">
+    <row r="65" spans="1:17" s="194" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="191" t="s">
         <v>88</v>
       </c>
-      <c r="B65" s="247" t="s">
+      <c r="B65" s="192" t="s">
         <v>95</v>
       </c>
-      <c r="C65" s="247" t="s">
+      <c r="C65" s="192" t="s">
         <v>147</v>
       </c>
-      <c r="D65" s="247" t="s">
+      <c r="D65" s="192" t="s">
         <v>147</v>
       </c>
-      <c r="E65" s="247" t="s">
+      <c r="E65" s="192" t="s">
         <v>147</v>
       </c>
-      <c r="F65" s="247" t="s">
+      <c r="F65" s="192" t="s">
         <v>95</v>
       </c>
-      <c r="G65" s="247" t="s">
+      <c r="G65" s="192" t="s">
         <v>151</v>
       </c>
-      <c r="H65" s="247" t="s">
+      <c r="H65" s="192" t="s">
         <v>96</v>
       </c>
-      <c r="I65" s="247" t="s">
+      <c r="I65" s="192" t="s">
         <v>151</v>
       </c>
-      <c r="J65" s="247" t="s">
+      <c r="J65" s="192" t="s">
         <v>95</v>
       </c>
-      <c r="K65" s="247" t="s">
+      <c r="K65" s="192" t="s">
         <v>147</v>
       </c>
-      <c r="L65" s="247" t="s">
+      <c r="L65" s="192" t="s">
         <v>147</v>
       </c>
-      <c r="M65" s="247" t="s">
+      <c r="M65" s="192" t="s">
         <v>147</v>
       </c>
-      <c r="N65" s="247" t="s">
+      <c r="N65" s="192" t="s">
         <v>95</v>
       </c>
-      <c r="O65" s="247" t="s">
+      <c r="O65" s="192" t="s">
         <v>151</v>
       </c>
-      <c r="P65" s="247" t="s">
+      <c r="P65" s="192" t="s">
         <v>96</v>
       </c>
-      <c r="Q65" s="247" t="s">
+      <c r="Q65" s="192" t="s">
         <v>151</v>
       </c>
     </row>
@@ -4016,10 +4016,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="10"/>
-      <c r="C4" s="206"/>
-      <c r="D4" s="206"/>
-      <c r="E4" s="206"/>
-      <c r="F4" s="206"/>
+      <c r="C4" s="221"/>
+      <c r="D4" s="221"/>
+      <c r="E4" s="221"/>
+      <c r="F4" s="221"/>
       <c r="H4" s="12"/>
       <c r="I4" s="13" t="s">
         <v>14</v>
@@ -4033,10 +4033,10 @@
         <v>11</v>
       </c>
       <c r="B5" s="10"/>
-      <c r="C5" s="206"/>
-      <c r="D5" s="206"/>
-      <c r="E5" s="206"/>
-      <c r="F5" s="206"/>
+      <c r="C5" s="221"/>
+      <c r="D5" s="221"/>
+      <c r="E5" s="221"/>
+      <c r="F5" s="221"/>
       <c r="K5" s="51"/>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4061,10 +4061,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="206"/>
-      <c r="D7" s="206"/>
-      <c r="E7" s="206"/>
-      <c r="F7" s="206"/>
+      <c r="C7" s="221"/>
+      <c r="D7" s="221"/>
+      <c r="E7" s="221"/>
+      <c r="F7" s="221"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -4076,10 +4076,10 @@
         <v>9</v>
       </c>
       <c r="B8" s="10"/>
-      <c r="C8" s="206"/>
-      <c r="D8" s="206"/>
-      <c r="E8" s="206"/>
-      <c r="F8" s="206"/>
+      <c r="C8" s="221"/>
+      <c r="D8" s="221"/>
+      <c r="E8" s="221"/>
+      <c r="F8" s="221"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -4091,10 +4091,10 @@
         <v>10</v>
       </c>
       <c r="B9" s="10"/>
-      <c r="C9" s="206"/>
-      <c r="D9" s="206"/>
-      <c r="E9" s="206"/>
-      <c r="F9" s="206"/>
+      <c r="C9" s="221"/>
+      <c r="D9" s="221"/>
+      <c r="E9" s="221"/>
+      <c r="F9" s="221"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -4128,215 +4128,215 @@
       <c r="L11" s="3"/>
     </row>
     <row r="12" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H12" s="207" t="s">
+      <c r="H12" s="222" t="s">
         <v>41</v>
       </c>
-      <c r="I12" s="208"/>
-      <c r="J12" s="209" t="s">
+      <c r="I12" s="223"/>
+      <c r="J12" s="224" t="s">
         <v>42</v>
       </c>
-      <c r="K12" s="209"/>
-      <c r="L12" s="209"/>
+      <c r="K12" s="224"/>
+      <c r="L12" s="224"/>
     </row>
     <row r="13" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="210" t="s">
+      <c r="A13" s="198" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="213" t="s">
+      <c r="B13" s="204" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="213" t="s">
+      <c r="C13" s="204" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="213"/>
-      <c r="E13" s="213"/>
-      <c r="F13" s="215" t="s">
+      <c r="D13" s="204"/>
+      <c r="E13" s="204"/>
+      <c r="F13" s="213" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="216"/>
+      <c r="G13" s="214"/>
       <c r="H13" s="17"/>
       <c r="I13" s="18"/>
-      <c r="J13" s="197" t="s">
+      <c r="J13" s="215" t="s">
         <v>1</v>
       </c>
-      <c r="K13" s="199"/>
-      <c r="L13" s="193">
+      <c r="K13" s="231"/>
+      <c r="L13" s="227">
         <f>ROUND(K13*0.3,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="211"/>
-      <c r="B14" s="214"/>
-      <c r="C14" s="214" t="s">
+      <c r="A14" s="199"/>
+      <c r="B14" s="209"/>
+      <c r="C14" s="209" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="214"/>
-      <c r="E14" s="214"/>
-      <c r="F14" s="217" t="s">
+      <c r="D14" s="209"/>
+      <c r="E14" s="209"/>
+      <c r="F14" s="210" t="s">
         <v>124</v>
       </c>
-      <c r="G14" s="218"/>
+      <c r="G14" s="211"/>
       <c r="H14" s="20"/>
       <c r="I14" s="21"/>
-      <c r="J14" s="198"/>
-      <c r="K14" s="200"/>
-      <c r="L14" s="194"/>
+      <c r="J14" s="216"/>
+      <c r="K14" s="232"/>
+      <c r="L14" s="228"/>
     </row>
     <row r="15" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="211"/>
-      <c r="B15" s="214"/>
-      <c r="C15" s="214" t="s">
+      <c r="A15" s="199"/>
+      <c r="B15" s="209"/>
+      <c r="C15" s="209" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="214"/>
-      <c r="E15" s="214"/>
-      <c r="F15" s="217" t="s">
+      <c r="D15" s="209"/>
+      <c r="E15" s="209"/>
+      <c r="F15" s="210" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="218"/>
+      <c r="G15" s="211"/>
       <c r="H15" s="23"/>
       <c r="I15" s="24"/>
-      <c r="J15" s="198"/>
-      <c r="K15" s="201"/>
-      <c r="L15" s="194"/>
+      <c r="J15" s="216"/>
+      <c r="K15" s="233"/>
+      <c r="L15" s="228"/>
     </row>
     <row r="16" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="211"/>
-      <c r="B16" s="219" t="s">
+      <c r="A16" s="199"/>
+      <c r="B16" s="217" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="214" t="s">
+      <c r="C16" s="209" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="214"/>
-      <c r="E16" s="214"/>
-      <c r="F16" s="217" t="s">
+      <c r="D16" s="209"/>
+      <c r="E16" s="209"/>
+      <c r="F16" s="210" t="s">
         <v>125</v>
       </c>
-      <c r="G16" s="218"/>
+      <c r="G16" s="211"/>
       <c r="H16" s="25"/>
       <c r="I16" s="26"/>
-      <c r="J16" s="198" t="s">
+      <c r="J16" s="216" t="s">
         <v>2</v>
       </c>
-      <c r="K16" s="192"/>
-      <c r="L16" s="194">
+      <c r="K16" s="226"/>
+      <c r="L16" s="228">
         <f>ROUND(K16*0.25,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="211"/>
-      <c r="B17" s="220"/>
-      <c r="C17" s="214" t="s">
+      <c r="A17" s="199"/>
+      <c r="B17" s="218"/>
+      <c r="C17" s="209" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="214"/>
-      <c r="E17" s="214"/>
-      <c r="F17" s="217" t="s">
+      <c r="D17" s="209"/>
+      <c r="E17" s="209"/>
+      <c r="F17" s="210" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="218"/>
+      <c r="G17" s="211"/>
       <c r="H17" s="20"/>
       <c r="I17" s="21"/>
-      <c r="J17" s="198"/>
-      <c r="K17" s="192"/>
-      <c r="L17" s="194"/>
+      <c r="J17" s="216"/>
+      <c r="K17" s="226"/>
+      <c r="L17" s="228"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="212"/>
-      <c r="B18" s="221"/>
-      <c r="C18" s="223" t="s">
+      <c r="A18" s="200"/>
+      <c r="B18" s="219"/>
+      <c r="C18" s="212" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="223"/>
-      <c r="E18" s="223"/>
-      <c r="F18" s="204" t="s">
+      <c r="D18" s="212"/>
+      <c r="E18" s="212"/>
+      <c r="F18" s="207" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="205"/>
+      <c r="G18" s="208"/>
       <c r="H18" s="27"/>
       <c r="I18" s="28"/>
-      <c r="J18" s="222"/>
-      <c r="K18" s="202"/>
-      <c r="L18" s="203"/>
+      <c r="J18" s="220"/>
+      <c r="K18" s="234"/>
+      <c r="L18" s="235"/>
     </row>
     <row r="19" spans="1:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="210" t="s">
+      <c r="A19" s="198" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="227" t="s">
+      <c r="B19" s="201" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="213" t="s">
+      <c r="C19" s="204" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="213"/>
-      <c r="E19" s="213"/>
-      <c r="F19" s="230" t="s">
+      <c r="D19" s="204"/>
+      <c r="E19" s="204"/>
+      <c r="F19" s="205" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="231"/>
+      <c r="G19" s="206"/>
       <c r="H19" s="29"/>
       <c r="I19" s="30"/>
-      <c r="J19" s="197" t="s">
+      <c r="J19" s="215" t="s">
         <v>81</v>
       </c>
-      <c r="K19" s="191"/>
-      <c r="L19" s="193">
+      <c r="K19" s="225"/>
+      <c r="L19" s="227">
         <f>ROUND(K19*0.25,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="211"/>
-      <c r="B20" s="228"/>
-      <c r="C20" s="214" t="s">
+      <c r="A20" s="199"/>
+      <c r="B20" s="202"/>
+      <c r="C20" s="209" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="214"/>
-      <c r="E20" s="214"/>
-      <c r="F20" s="217" t="s">
+      <c r="D20" s="209"/>
+      <c r="E20" s="209"/>
+      <c r="F20" s="210" t="s">
         <v>32</v>
       </c>
-      <c r="G20" s="218"/>
+      <c r="G20" s="211"/>
       <c r="H20" s="20"/>
       <c r="I20" s="21"/>
-      <c r="J20" s="198"/>
-      <c r="K20" s="192"/>
-      <c r="L20" s="194"/>
+      <c r="J20" s="216"/>
+      <c r="K20" s="226"/>
+      <c r="L20" s="228"/>
     </row>
     <row r="21" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="211"/>
-      <c r="B21" s="229"/>
-      <c r="C21" s="214" t="s">
+      <c r="A21" s="199"/>
+      <c r="B21" s="203"/>
+      <c r="C21" s="209" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="214"/>
-      <c r="E21" s="214"/>
-      <c r="F21" s="217" t="s">
+      <c r="D21" s="209"/>
+      <c r="E21" s="209"/>
+      <c r="F21" s="210" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="218"/>
+      <c r="G21" s="211"/>
       <c r="H21" s="23"/>
       <c r="I21" s="24"/>
-      <c r="J21" s="198"/>
-      <c r="K21" s="192"/>
-      <c r="L21" s="194"/>
+      <c r="J21" s="216"/>
+      <c r="K21" s="226"/>
+      <c r="L21" s="228"/>
     </row>
     <row r="22" spans="1:12" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="212"/>
+      <c r="A22" s="200"/>
       <c r="B22" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="223"/>
-      <c r="D22" s="223"/>
-      <c r="E22" s="223"/>
-      <c r="F22" s="204" t="s">
+      <c r="C22" s="212"/>
+      <c r="D22" s="212"/>
+      <c r="E22" s="212"/>
+      <c r="F22" s="207" t="s">
         <v>36</v>
       </c>
-      <c r="G22" s="205"/>
+      <c r="G22" s="208"/>
       <c r="H22" s="32"/>
       <c r="I22" s="33"/>
       <c r="J22" s="34" t="s">
@@ -4355,15 +4355,15 @@
       <c r="B23" s="135" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="224" t="s">
+      <c r="C23" s="195" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="224"/>
-      <c r="E23" s="224"/>
-      <c r="F23" s="225" t="s">
+      <c r="D23" s="195"/>
+      <c r="E23" s="195"/>
+      <c r="F23" s="196" t="s">
         <v>39</v>
       </c>
-      <c r="G23" s="226"/>
+      <c r="G23" s="197"/>
       <c r="H23" s="36"/>
       <c r="I23" s="37"/>
       <c r="J23" s="38" t="s">
@@ -4402,11 +4402,11 @@
         <v>6</v>
       </c>
       <c r="J25" s="42"/>
-      <c r="K25" s="195">
+      <c r="K25" s="229">
         <f>SUM(L13:L23)</f>
         <v>0</v>
       </c>
-      <c r="L25" s="196"/>
+      <c r="L25" s="230"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="K26" s="166"/>
@@ -4433,18 +4433,22 @@
     <row r="30" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="K19:K21"/>
+    <mergeCell ref="L19:L21"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="J19:J21"/>
+    <mergeCell ref="K13:K15"/>
+    <mergeCell ref="L13:L15"/>
+    <mergeCell ref="K16:K18"/>
+    <mergeCell ref="L16:L18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
     <mergeCell ref="A13:A18"/>
     <mergeCell ref="B13:B15"/>
     <mergeCell ref="C13:E13"/>
@@ -4461,22 +4465,18 @@
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="K19:K21"/>
-    <mergeCell ref="L19:L21"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="J19:J21"/>
-    <mergeCell ref="K13:K15"/>
-    <mergeCell ref="L13:L15"/>
-    <mergeCell ref="K16:K18"/>
-    <mergeCell ref="L16:L18"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="C22:E22"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4492,8 +4492,8 @@
   <sheetPr codeName="Blad4"/>
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A15" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -4501,7 +4501,7 @@
     <col min="1" max="1" width="5.73046875" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.1328125" style="1"/>
     <col min="3" max="3" width="12.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.73046875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="4.53125" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.19921875" style="1" customWidth="1"/>
     <col min="6" max="6" width="6.06640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.59765625" style="1" customWidth="1"/>
@@ -4561,10 +4561,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="10"/>
-      <c r="C5" s="206"/>
-      <c r="D5" s="206"/>
-      <c r="E5" s="206"/>
-      <c r="F5" s="206"/>
+      <c r="C5" s="221"/>
+      <c r="D5" s="221"/>
+      <c r="E5" s="221"/>
+      <c r="F5" s="221"/>
       <c r="H5" s="132"/>
       <c r="I5" s="13" t="s">
         <v>14</v>
@@ -4578,10 +4578,10 @@
         <v>11</v>
       </c>
       <c r="B6" s="10"/>
-      <c r="C6" s="206"/>
-      <c r="D6" s="206"/>
-      <c r="E6" s="206"/>
-      <c r="F6" s="206"/>
+      <c r="C6" s="221"/>
+      <c r="D6" s="221"/>
+      <c r="E6" s="221"/>
+      <c r="F6" s="221"/>
       <c r="K6" s="51"/>
     </row>
     <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4606,10 +4606,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="232"/>
-      <c r="D8" s="232"/>
-      <c r="E8" s="232"/>
-      <c r="F8" s="232"/>
+      <c r="C8" s="236"/>
+      <c r="D8" s="236"/>
+      <c r="E8" s="236"/>
+      <c r="F8" s="236"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -4621,10 +4621,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="10"/>
-      <c r="C9" s="206"/>
-      <c r="D9" s="206"/>
-      <c r="E9" s="206"/>
-      <c r="F9" s="206"/>
+      <c r="C9" s="221"/>
+      <c r="D9" s="221"/>
+      <c r="E9" s="221"/>
+      <c r="F9" s="221"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -4636,10 +4636,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="10"/>
-      <c r="C10" s="206"/>
-      <c r="D10" s="206"/>
-      <c r="E10" s="206"/>
-      <c r="F10" s="206"/>
+      <c r="C10" s="221"/>
+      <c r="D10" s="221"/>
+      <c r="E10" s="221"/>
+      <c r="F10" s="221"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -5658,10 +5658,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="10"/>
-      <c r="C5" s="206"/>
-      <c r="D5" s="206"/>
-      <c r="E5" s="206"/>
-      <c r="F5" s="206"/>
+      <c r="C5" s="221"/>
+      <c r="D5" s="221"/>
+      <c r="E5" s="221"/>
+      <c r="F5" s="221"/>
       <c r="H5" s="132"/>
       <c r="I5" s="13" t="s">
         <v>14</v>
@@ -5675,10 +5675,10 @@
         <v>11</v>
       </c>
       <c r="B6" s="10"/>
-      <c r="C6" s="206"/>
-      <c r="D6" s="206"/>
-      <c r="E6" s="206"/>
-      <c r="F6" s="206"/>
+      <c r="C6" s="221"/>
+      <c r="D6" s="221"/>
+      <c r="E6" s="221"/>
+      <c r="F6" s="221"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -5707,10 +5707,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="232"/>
-      <c r="D8" s="232"/>
-      <c r="E8" s="232"/>
-      <c r="F8" s="232"/>
+      <c r="C8" s="236"/>
+      <c r="D8" s="236"/>
+      <c r="E8" s="236"/>
+      <c r="F8" s="236"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
@@ -5722,10 +5722,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="10"/>
-      <c r="C9" s="206"/>
-      <c r="D9" s="206"/>
-      <c r="E9" s="206"/>
-      <c r="F9" s="206"/>
+      <c r="C9" s="221"/>
+      <c r="D9" s="221"/>
+      <c r="E9" s="221"/>
+      <c r="F9" s="221"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
@@ -5737,10 +5737,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="10"/>
-      <c r="C10" s="206"/>
-      <c r="D10" s="206"/>
-      <c r="E10" s="206"/>
-      <c r="F10" s="206"/>
+      <c r="C10" s="221"/>
+      <c r="D10" s="221"/>
+      <c r="E10" s="221"/>
+      <c r="F10" s="221"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
@@ -6746,10 +6746,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="10"/>
-      <c r="C5" s="206"/>
-      <c r="D5" s="206"/>
-      <c r="E5" s="206"/>
-      <c r="F5" s="206"/>
+      <c r="C5" s="221"/>
+      <c r="D5" s="221"/>
+      <c r="E5" s="221"/>
+      <c r="F5" s="221"/>
       <c r="H5" s="132"/>
       <c r="I5" s="13" t="s">
         <v>14</v>
@@ -6763,10 +6763,10 @@
         <v>11</v>
       </c>
       <c r="B6" s="10"/>
-      <c r="C6" s="206"/>
-      <c r="D6" s="206"/>
-      <c r="E6" s="206"/>
-      <c r="F6" s="206"/>
+      <c r="C6" s="221"/>
+      <c r="D6" s="221"/>
+      <c r="E6" s="221"/>
+      <c r="F6" s="221"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -6795,10 +6795,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="232"/>
-      <c r="D8" s="232"/>
-      <c r="E8" s="232"/>
-      <c r="F8" s="232"/>
+      <c r="C8" s="236"/>
+      <c r="D8" s="236"/>
+      <c r="E8" s="236"/>
+      <c r="F8" s="236"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
@@ -6810,10 +6810,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="10"/>
-      <c r="C9" s="206"/>
-      <c r="D9" s="206"/>
-      <c r="E9" s="206"/>
-      <c r="F9" s="206"/>
+      <c r="C9" s="221"/>
+      <c r="D9" s="221"/>
+      <c r="E9" s="221"/>
+      <c r="F9" s="221"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
@@ -6825,10 +6825,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="10"/>
-      <c r="C10" s="206"/>
-      <c r="D10" s="206"/>
-      <c r="E10" s="206"/>
-      <c r="F10" s="206"/>
+      <c r="C10" s="221"/>
+      <c r="D10" s="221"/>
+      <c r="E10" s="221"/>
+      <c r="F10" s="221"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
@@ -6860,19 +6860,19 @@
       <c r="L13" s="8"/>
     </row>
     <row r="14" spans="1:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="233" t="s">
+      <c r="A14" s="237" t="s">
         <v>141</v>
       </c>
-      <c r="B14" s="235" t="s">
+      <c r="B14" s="239" t="s">
         <v>128</v>
       </c>
-      <c r="C14" s="236"/>
-      <c r="D14" s="236"/>
-      <c r="E14" s="236"/>
-      <c r="F14" s="236"/>
-      <c r="G14" s="236"/>
-      <c r="H14" s="236"/>
-      <c r="I14" s="237"/>
+      <c r="C14" s="240"/>
+      <c r="D14" s="240"/>
+      <c r="E14" s="240"/>
+      <c r="F14" s="240"/>
+      <c r="G14" s="240"/>
+      <c r="H14" s="240"/>
+      <c r="I14" s="241"/>
       <c r="J14" s="19" t="s">
         <v>137</v>
       </c>
@@ -6884,17 +6884,17 @@
       <c r="M14" s="43"/>
     </row>
     <row r="15" spans="1:13" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="234"/>
-      <c r="B15" s="238" t="s">
+      <c r="A15" s="238"/>
+      <c r="B15" s="242" t="s">
         <v>129</v>
       </c>
-      <c r="C15" s="239"/>
-      <c r="D15" s="239"/>
-      <c r="E15" s="239"/>
-      <c r="F15" s="239"/>
-      <c r="G15" s="239"/>
-      <c r="H15" s="239"/>
-      <c r="I15" s="239"/>
+      <c r="C15" s="243"/>
+      <c r="D15" s="243"/>
+      <c r="E15" s="243"/>
+      <c r="F15" s="243"/>
+      <c r="G15" s="243"/>
+      <c r="H15" s="243"/>
+      <c r="I15" s="243"/>
       <c r="J15" s="34" t="s">
         <v>138</v>
       </c>
@@ -6905,19 +6905,19 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="233" t="s">
+      <c r="A16" s="237" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="241" t="s">
+      <c r="B16" s="245" t="s">
         <v>130</v>
       </c>
-      <c r="C16" s="242"/>
-      <c r="D16" s="242"/>
-      <c r="E16" s="242"/>
-      <c r="F16" s="242"/>
-      <c r="G16" s="242"/>
-      <c r="H16" s="242"/>
-      <c r="I16" s="242"/>
+      <c r="C16" s="246"/>
+      <c r="D16" s="246"/>
+      <c r="E16" s="246"/>
+      <c r="F16" s="246"/>
+      <c r="G16" s="246"/>
+      <c r="H16" s="246"/>
+      <c r="I16" s="246"/>
       <c r="J16" s="19" t="s">
         <v>139</v>
       </c>
@@ -6928,17 +6928,17 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="240"/>
-      <c r="B17" s="243" t="s">
+      <c r="A17" s="244"/>
+      <c r="B17" s="247" t="s">
         <v>143</v>
       </c>
-      <c r="C17" s="244"/>
-      <c r="D17" s="244"/>
-      <c r="E17" s="244"/>
-      <c r="F17" s="244"/>
-      <c r="G17" s="244"/>
-      <c r="H17" s="244"/>
-      <c r="I17" s="244"/>
+      <c r="C17" s="248"/>
+      <c r="D17" s="248"/>
+      <c r="E17" s="248"/>
+      <c r="F17" s="248"/>
+      <c r="G17" s="248"/>
+      <c r="H17" s="248"/>
+      <c r="I17" s="248"/>
       <c r="J17" s="22" t="s">
         <v>4</v>
       </c>
@@ -6949,17 +6949,17 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="234"/>
-      <c r="B18" s="245" t="s">
+      <c r="A18" s="238"/>
+      <c r="B18" s="249" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="239"/>
-      <c r="D18" s="239"/>
-      <c r="E18" s="239"/>
-      <c r="F18" s="239"/>
-      <c r="G18" s="239"/>
-      <c r="H18" s="239"/>
-      <c r="I18" s="239"/>
+      <c r="C18" s="243"/>
+      <c r="D18" s="243"/>
+      <c r="E18" s="243"/>
+      <c r="F18" s="243"/>
+      <c r="G18" s="243"/>
+      <c r="H18" s="243"/>
+      <c r="I18" s="243"/>
       <c r="J18" s="34" t="s">
         <v>140</v>
       </c>
@@ -7078,11 +7078,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C10:F10"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:I14"/>
     <mergeCell ref="B15:I15"/>
@@ -7090,6 +7085,11 @@
     <mergeCell ref="B16:I16"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="B18:I18"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C10:F10"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7101,6 +7101,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100570C130F412EDB4EBF3E80DF6A9149FD" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cfaa3b10b9be17ef9f56bd19dc71004c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ddb0c952b897a810c8a4e377cff6bff8" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -7166,25 +7184,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A807C1-6DB8-4C6A-8DCB-8B5F61EFE299}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF64F18F-372D-43EC-AE22-C51BFB121B01}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A00BD0D-8423-4FFE-92A4-D273D2078383}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7199,27 +7222,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF64F18F-372D-43EC-AE22-C51BFB121B01}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A807C1-6DB8-4C6A-8DCB-8B5F61EFE299}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>